--- a/data/trans_orig/P14B23_2015-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B23_2015-Habitat-trans_orig.xlsx
@@ -712,12 +712,12 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>38,13%</t>
+          <t>45,88%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>92,88%</t>
+          <t>92,81%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -733,12 +733,12 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>48,06%</t>
+          <t>46,69%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>93,78%</t>
+          <t>93,72%</t>
         </is>
       </c>
     </row>
@@ -783,12 +783,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>61,87%</t>
+          <t>54,12%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -804,12 +804,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>51,94%</t>
+          <t>53,31%</t>
         </is>
       </c>
     </row>
@@ -908,7 +908,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>60,03%</t>
+          <t>53,2%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -929,12 +929,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>76,06%</t>
+          <t>76,8%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>95,73%</t>
+          <t>94,99%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -950,12 +950,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>78,45%</t>
+          <t>78,5%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>95,28%</t>
+          <t>95,21%</t>
         </is>
       </c>
     </row>
@@ -984,7 +984,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>39,97%</t>
+          <t>46,8%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
@@ -1000,12 +1000,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>23,94%</t>
+          <t>23,2%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1021,12 +1021,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>21,55%</t>
+          <t>21,5%</t>
         </is>
       </c>
     </row>
@@ -1146,19 +1146,19 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>75,43%</t>
+          <t>74,67%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>92,22%</t>
+          <t>93,07%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
         <v>74</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>80469</v>
+        <v>80468</v>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
@@ -1167,12 +1167,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>79,63%</t>
+          <t>79,43%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>93,71%</t>
+          <t>93,68%</t>
         </is>
       </c>
     </row>
@@ -1217,12 +1217,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,78%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>24,57%</t>
+          <t>25,33%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1238,12 +1238,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>20,37%</t>
+          <t>20,57%</t>
         </is>
       </c>
     </row>
@@ -1300,7 +1300,7 @@
         <v>84</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>91596</v>
+        <v>91595</v>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>69,97%</t>
+          <t>69,09%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1363,12 +1363,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>82,69%</t>
+          <t>82,89%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>98,1%</t>
+          <t>98,09%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1384,12 +1384,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>83,5%</t>
+          <t>83,72%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>97,2%</t>
+          <t>97,19%</t>
         </is>
       </c>
     </row>
@@ -1418,7 +1418,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>30,03%</t>
+          <t>30,91%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1434,12 +1434,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>17,31%</t>
+          <t>17,11%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1455,12 +1455,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>16,5%</t>
+          <t>16,28%</t>
         </is>
       </c>
     </row>
@@ -1559,12 +1559,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>60,02%</t>
+          <t>62,79%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>95,99%</t>
+          <t>96,01%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1580,12 +1580,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>67,34%</t>
+          <t>67,0%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>86,22%</t>
+          <t>86,81%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1601,12 +1601,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>69,89%</t>
+          <t>70,31%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>87,03%</t>
+          <t>87,05%</t>
         </is>
       </c>
     </row>
@@ -1630,12 +1630,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>39,98%</t>
+          <t>37,21%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1651,12 +1651,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>13,78%</t>
+          <t>13,19%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>32,66%</t>
+          <t>33,0%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1672,12 +1672,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>12,97%</t>
+          <t>12,95%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>30,11%</t>
+          <t>29,69%</t>
         </is>
       </c>
     </row>
@@ -1776,12 +1776,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>79,82%</t>
+          <t>80,49%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>95,58%</t>
+          <t>95,46%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1797,12 +1797,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>79,66%</t>
+          <t>79,79%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>88,9%</t>
+          <t>89,04%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1818,12 +1818,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>81,46%</t>
+          <t>81,74%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>89,26%</t>
+          <t>89,49%</t>
         </is>
       </c>
     </row>
@@ -1847,12 +1847,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>20,18%</t>
+          <t>19,51%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1868,12 +1868,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>10,96%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>20,34%</t>
+          <t>20,21%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1889,12 +1889,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>10,51%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>18,54%</t>
+          <t>18,26%</t>
         </is>
       </c>
     </row>
